--- a/BassFly_uHat.bom-varB.xlsx
+++ b/BassFly_uHat.bom-varB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\tfa98xx_bt_spkr\kicad5_workspace\projects\BassFly_uHat_Rev1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\bassfly-uhat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71767A63-7141-4E50-82DB-B260C3E0A378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9A9104-8F84-40EE-9F68-C6E2B7DA7992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,10 +1509,10 @@
         <v>105</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>49</v>

--- a/BassFly_uHat.bom-varB.xlsx
+++ b/BassFly_uHat.bom-varB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\bassfly-uhat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\tfa98xx_bt_spkr\kicad5_workspace\projects\BassFly_uHat_Rev1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9A9104-8F84-40EE-9F68-C6E2B7DA7992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71767A63-7141-4E50-82DB-B260C3E0A378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,10 +1509,10 @@
         <v>105</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>49</v>
